--- a/results/city_frequency_overall.xlsx
+++ b/results/city_frequency_overall.xlsx
@@ -40,12 +40,12 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Graz</t>
+  </si>
+  <si>
     <t>Leipzig</t>
   </si>
   <si>
-    <t>Graz</t>
-  </si>
-  <si>
     <t>Potsdam</t>
   </si>
   <si>
@@ -88,24 +88,24 @@
     <t>Bonn</t>
   </si>
   <si>
+    <t>Marburg</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
     <t>Mannheim</t>
   </si>
   <si>
-    <t>Marburg</t>
-  </si>
-  <si>
-    <t>Tübingen</t>
+    <t>Passau</t>
+  </si>
+  <si>
+    <t>Bochum</t>
   </si>
   <si>
     <t>Jena</t>
   </si>
   <si>
-    <t>Passau</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
     <t>Zürich</t>
   </si>
   <si>
@@ -115,24 +115,24 @@
     <t>Essen</t>
   </si>
   <si>
+    <t>Moskau</t>
+  </si>
+  <si>
     <t>Bamberg</t>
   </si>
   <si>
     <t>Wuppertal</t>
   </si>
   <si>
-    <t>Moskau</t>
+    <t>Krems</t>
+  </si>
+  <si>
+    <t>Münster</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
-    <t>Krems</t>
-  </si>
-  <si>
-    <t>Münster</t>
-  </si>
-  <si>
     <t>Bielefeld</t>
   </si>
   <si>
@@ -256,45 +256,45 @@
     <t>Cambridge</t>
   </si>
   <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>Mailand</t>
+  </si>
+  <si>
     <t>Kopenhagen</t>
   </si>
   <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Antwerpen</t>
-  </si>
-  <si>
-    <t>Mailand</t>
-  </si>
-  <si>
     <t>Magdeburg</t>
   </si>
   <si>
     <t>Salamanca</t>
   </si>
   <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Koblenz</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
     <t>London</t>
   </si>
   <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Koblenz</t>
-  </si>
-  <si>
-    <t>Zagreb</t>
-  </si>
-  <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Oldenburg</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
     <t>Frankfurt am Main</t>
   </si>
   <si>
@@ -304,28 +304,28 @@
     <t>Linköping</t>
   </si>
   <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Jodhpur, Indien</t>
+  </si>
+  <si>
+    <t>Oxford Uk</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Ormskirk</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
     <t>Cork</t>
-  </si>
-  <si>
-    <t>Bozen</t>
-  </si>
-  <si>
-    <t>Jodhpur, Indien</t>
-  </si>
-  <si>
-    <t>Oxford Uk</t>
-  </si>
-  <si>
-    <t>Jerusalem</t>
-  </si>
-  <si>
-    <t>Ormskirk</t>
-  </si>
-  <si>
-    <t>Santa Barbara</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
   </si>
   <si>
     <t>Fairfax</t>
